--- a/플레이로그.xlsx
+++ b/플레이로그.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/플레이로그.xlsx
+++ b/플레이로그.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>112</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/플레이로그.xlsx
+++ b/플레이로그.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>245</v>
+        <v>3550</v>
       </c>
     </row>
   </sheetData>

--- a/플레이로그.xlsx
+++ b/플레이로그.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="플레이 로그" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,7 +53,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -354,13 +348,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
   </cols>
@@ -383,38 +377,32 @@
           <t>취뽀취뽀</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>220</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>민트초코</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>40</v>
+          <t>취뽀취뽀</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>민트초코</t>
+          <t>취뽀취뽀</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>민트초코</t>
+          <t>취뽀취뽀</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-50</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6">
@@ -424,7 +412,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="7">
@@ -434,17 +422,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>민트초코</t>
+          <t>취뽀취뽀</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -454,55 +442,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>민트초코</t>
+          <t>취뽀취뽀</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>민트초코</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>종합설계</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>민트초코</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>종합설계</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3550</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>